--- a/reverseprimer-v3_04.xlsx
+++ b/reverseprimer-v3_04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_04" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0289-TGTAGGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTAGGAACAGTCTCGTGGGCTCGG</t>
+    <t>R0289-ACGAACCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAACCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0290-TTGGTGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGTGATCGGTCTCGTGGGCTCGG</t>
+    <t>R0290-GTTCGTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0291-GGTTCAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTCAGGATGTCTCGTGGGCTCGG</t>
+    <t>R0291-ACATCGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0292-CCACATGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACATGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0292-GTGTACATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTACATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0293-CAAGAGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGACTGGTCTCGTGGGCTCGG</t>
+    <t>R0293-TGTCTTCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTTCAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0294-GAACACTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACTTGCGTCTCGTGGGCTCGG</t>
+    <t>R0294-GAGTTCTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0295-AGTGAGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGACACGTCTCGTGGGCTCGG</t>
+    <t>R0295-GAACAAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0296-CTACCAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R0296-TTCTGAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0297-GAACTTCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTTCACTGTCTCGTGGGCTCGG</t>
+    <t>R0297-TGCATGGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCATGGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0298-AGACCATGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACCATGACGTCTCGTGGGCTCGG</t>
+    <t>R0298-GTGTACTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTACTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0299-GAAGCATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCATCCTGTCTCGTGGGCTCGG</t>
+    <t>R0299-CAAGAGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0300-GCATCTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCTCTGAGTCTCGTGGGCTCGG</t>
+    <t>R0300-CACAGCTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAGCTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0301-ATCACGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACGACAGGTCTCGTGGGCTCGG</t>
+    <t>R0301-GAACGAAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGAAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R0302-CAAGTCCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTCCATCGTCTCGTGGGCTCGG</t>
+    <t>R0302-AACCAACCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R0303-CACTAGCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTAGCTACGTCTCGTGGGCTCGG</t>
+    <t>R0303-TGACCAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCAGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R0304-TGTTCGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCGACAAGTCTCGTGGGCTCGG</t>
+    <t>R0304-GTGATCCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGATCCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R0305-ACTAGGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGGTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0305-AACTGTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R0306-ACACAACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAACAAGGTCTCGTGGGCTCGG</t>
+    <t>R0306-AACCATCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCATCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R0307-CAACTCACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACTCACCAGTCTCGTGGGCTCGG</t>
+    <t>R0307-GGTACTTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTACTTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R0308-TTGACCTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACCTGTGGTCTCGTGGGCTCGG</t>
+    <t>R0308-TCACGTACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGTACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R0309-TAGTGTCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTCTCGGTCTCGTGGGCTCGG</t>
+    <t>R0309-AACACCTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACCTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R0310-CCAAGATCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAAGATCATGTCTCGTGGGCTCGG</t>
+    <t>R0310-CCTTGAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R0311-ATGCTCTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTCTTGAGTCTCGTGGGCTCGG</t>
+    <t>R0311-AAGGACTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGACTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R0312-GAAGACTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGACTGGTGTCTCGTGGGCTCGG</t>
+    <t>R0312-ATCCAAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R0313-AAGCTAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTAGACAGTCTCGTGGGCTCGG</t>
+    <t>R0313-AGACTCGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTCGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R0314-AGCAACATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAACATCTGTCTCGTGGGCTCGG</t>
+    <t>R0314-ACTGTGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTGCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R0315-TACGAGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAGTGAGGTCTCGTGGGCTCGG</t>
+    <t>R0315-CTTCTGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCTGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R0316-ATCCTCCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTCCTGTGTCTCGTGGGCTCGG</t>
+    <t>R0316-TCTCAGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R0317-AACCTCATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTCATGGGTCTCGTGGGCTCGG</t>
+    <t>R0317-TAGGAGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGAGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R0318-TGCTAGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGTCACGTCTCGTGGGCTCGG</t>
+    <t>R0318-CTCAACACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAACACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R0319-GAGTGTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTGTAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0319-AGCTGCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGCTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R0320-GCTAGTACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGTACCAGTCTCGTGGGCTCGG</t>
+    <t>R0320-CAAGACAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGACAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0321-GTGGTAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGTAGCTTGTCTCGTGGGCTCGG</t>
+    <t>R0321-GATGATGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGATGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0322-GATCCTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R0322-TTCACGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0323-CTACGTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGTGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0323-TTGACCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACCATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0324-TGCAGCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAGCAAGTGTCTCGTGGGCTCGG</t>
+    <t>R0324-TGAAGAACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGAACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0325-TACTCCTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCCTGTCGTCTCGTGGGCTCGG</t>
+    <t>R0325-TTGTGTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTGTGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0326-TCCAGACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAGACTCAGTCTCGTGGGCTCGG</t>
+    <t>R0326-CTGACACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0327-TGACATCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACATCTACGTCTCGTGGGCTCGG</t>
+    <t>R0327-GTACTTGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTTGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0328-TCTGTCCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCCTGAGTCTCGTGGGCTCGG</t>
+    <t>R0328-GATCTCGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTCGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R0329-AGTGAGTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGTCCTGTCTCGTGGGCTCGG</t>
+    <t>R0329-TCAACAGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACAGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R0330-TAGTCTTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0330-AGAGATGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGATGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0331-CAGAAGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAAGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R0331-GTCAGATGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGATGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0332-CGTTCGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTCGATCTGTCTCGTGGGCTCGG</t>
+    <t>R0332-CTCGTGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGTGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0333-GTAGATCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGATCTACGTCTCGTGGGCTCGG</t>
+    <t>R0333-AGCAGTTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0334-ACTCTCAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTCAGACGTCTCGTGGGCTCGG</t>
+    <t>R0334-ATGGACACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGACACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0335-AGTACTGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACTGGAGGTCTCGTGGGCTCGG</t>
+    <t>R0335-GTACACCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACACCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0336-AGTCTGACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGACGTGTCTCGTGGGCTCGG</t>
+    <t>R0336-GTGATGTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGATGTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0337-AACTCAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCAGCATGTCTCGTGGGCTCGG</t>
+    <t>R0337-CTCCACACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCACACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0338-GTCATGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATGATCGGTCTCGTGGGCTCGG</t>
+    <t>R0338-GCTTCAACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTCAACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0339-ACAGCTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCTCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0339-GCTGTAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGTAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0340-TTCGACAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGACAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0340-AAGTTCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTTCATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0341-AGTCAAGCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAAGCAGGTCTCGTGGGCTCGG</t>
+    <t>R0341-AGGAGTGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAGTGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R0342-ACTACACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACACGTAGTCTCGTGGGCTCGG</t>
+    <t>R0342-TACGTGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTGGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R0343-TCTTGGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0343-AAGCTGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0344-CATGTACGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTACGTCGTCTCGTGGGCTCGG</t>
+    <t>R0344-ACACTGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTGGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0345-ATGACTGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACTGTGCGTCTCGTGGGCTCGG</t>
+    <t>R0345-ACTTCCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCCAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0346-CTTGTCAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGTCAGTCGTCTCGTGGGCTCGG</t>
+    <t>R0346-ACTCTGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0347-CGTACTTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTACTTGCAGTCTCGTGGGCTCGG</t>
+    <t>R0347-GTTGGAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGGAGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0348-TACTCGACAT</t>
+    <t>R0348-GACTCTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTCTCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R0349-CAACTAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTAGGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R0350-TCTCGAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGAGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R0351-TCACGAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGAGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R0352-AGCTGAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTGAGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R0353-ACCATGTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATGTCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R0354-TGTACAGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACAGGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R0355-GATCACGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCACGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R0356-TACACCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACCAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R0357-TCTCTGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R0358-AGAAGTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGTCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R0359-TCTGCACTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGCACTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R0360-TTGCACGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCACGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R0361-GCTGACTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGACTTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R0362-ACTGATCGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGATCGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R0363-ATCAACTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAACTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R0364-TTCCACTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCACTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R0365-CGAACTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAACTGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R0366-TACTCGACAT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTACTCGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R0349-ATCCTTCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTTCTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R0350-TAGAGTACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGTACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R0351-GTGTGTTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTTGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R0352-TCTGACTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGACTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R0353-AGATCAGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCAGACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R0354-GAAGAACAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAACAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R0355-TCATCTGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCTGGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R0356-TGACAACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAACGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R0357-TGATGCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGCAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R0358-AACCTAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R0359-CTAGACAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGACAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R0360-ATGAGCTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAGCTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R0361-TCGTCGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCGTTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R0362-ATCAACTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAACTTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R0363-ACACCACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCACGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R0364-ACTCAGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCAGACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R0365-ACAGCTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCTGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R0366-GTACGAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGAAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0367-ACAGCAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGCAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0367-AGTAGTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0368-TCACCAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCAACGAGTCTCGTGGGCTCGG</t>
+    <t>R0368-CACGTAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGTAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0369-ACAGGATGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGGATGACGTCTCGTGGGCTCGG</t>
+    <t>R0369-AGAGTTGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGTTGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0370-ATGACAGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACAGGAGGTCTCGTGGGCTCGG</t>
+    <t>R0370-TGCTTCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0371-TCATGAAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGAAGCTGTCTCGTGGGCTCGG</t>
+    <t>R0371-GGAGAGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGAGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0372-ACAACACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACACAACGTCTCGTGGGCTCGG</t>
+    <t>R0372-TCTGGATCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGGATCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0373-AACACGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACGACTTGTCTCGTGGGCTCGG</t>
+    <t>R0373-AACACTCAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACTCAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0374-TCTGCTTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGCTTCTTGTCTCGTGGGCTCGG</t>
+    <t>R0374-ACTCGTTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCGTTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0375-CTGCATCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCATCCTAGTCTCGTGGGCTCGG</t>
+    <t>R0375-ACTGCAACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCAACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0376-CTTGTAGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGTAGACGGTCTCGTGGGCTCGG</t>
+    <t>R0376-AACTCGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCGTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0377-TCCTGGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGGTACTGTCTCGTGGGCTCGG</t>
+    <t>R0377-CCTCTCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCTCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0378-CTCATGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCATGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0378-AACGAACGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGAACGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0379-GATCAGCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCAGCACTGTCTCGTGGGCTCGG</t>
+    <t>R0379-TGTTCCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0380-CAACGTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACGTCGATGTCTCGTGGGCTCGG</t>
+    <t>R0380-CAAGCTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCTAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0381-TTCAACCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAACCACAGTCTCGTGGGCTCGG</t>
+    <t>R0381-CTCATCACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCATCACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0382-TGGAACCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAACCATCGTCTCGTGGGCTCGG</t>
+    <t>R0382-CCATCCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATCCAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0383-AAGTCAGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCAGTCCGTCTCGTGGGCTCGG</t>
+    <t>R0383-CTAGACTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGACTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0384-GAACTGCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTGCAACGTCTCGTGGGCTCGG</t>
+    <t>R0384-ATCTCCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCCTGAGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
